--- a/testes_diferenca_juros.xlsx
+++ b/testes_diferenca_juros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENAI\Desktop\calculadora_diferenca_de_juros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B21FCC8-5FCD-4F03-A0EB-926596568DC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BBFC5C-3A13-46B4-B539-D8375061E7FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{5525939A-AB1B-42EF-8D04-E73A79D36278}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ARQUIVO</t>
   </si>
@@ -51,37 +51,10 @@
     <t>8.9, 9.9 ,7</t>
   </si>
   <si>
-    <t>ValueError("Os valores devem ser numéricos")</t>
-  </si>
-  <si>
-    <t>8.9, 9.9 ,8</t>
-  </si>
-  <si>
-    <t>8.9, 9.9 ,9</t>
-  </si>
-  <si>
-    <t>Verificar se o valor do capital é numérico</t>
-  </si>
-  <si>
-    <t>Verificar se o valor da taxa anual é numérico</t>
-  </si>
-  <si>
-    <t>Verificar se o valor do tempo é numérico</t>
-  </si>
-  <si>
-    <t>ValueError("Os valores devem ser não-negativos")</t>
-  </si>
-  <si>
-    <t>Verificar se o valor do capital é negativo</t>
-  </si>
-  <si>
-    <t>Verificar se o valor da taxa anual é negativo</t>
-  </si>
-  <si>
-    <t>Verificar se o valor do tempo é negativo</t>
-  </si>
-  <si>
-    <t>-10</t>
+    <t>2.16</t>
+  </si>
+  <si>
+    <t>Verificar se o valor é válido</t>
   </si>
 </sst>
 </file>
@@ -168,8 +141,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DDF75D1C-0649-49E6-A777-5A7667F301C7}" name="Tabela1" displayName="Tabela1" ref="A1:E7" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E7" xr:uid="{480D8B7D-3C50-4E5F-9AD7-8B19D2516C3C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DDF75D1C-0649-49E6-A777-5A7667F301C7}" name="Tabela1" displayName="Tabela1" ref="A1:E2" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E2" xr:uid="{480D8B7D-3C50-4E5F-9AD7-8B19D2516C3C}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{EF01FE55-B835-4F11-BA6C-078B68A63081}" name="ARQUIVO" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{54A93F97-8DB1-421B-ACE8-E10882F988D9}" name="FUNÇÕES" dataDxfId="3"/>
@@ -481,7 +454,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -528,89 +501,39 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
